--- a/output/severity_admin_status_subtables.xlsx
+++ b/output/severity_admin_status_subtables.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="place_of_origin_yes" sheetId="1" r:id="rId1"/>
-    <sheet name="place_of_origin_no" sheetId="2" r:id="rId2"/>
+    <sheet name="place_of_origin_always_lived" sheetId="1" r:id="rId1"/>
+    <sheet name="place_of_origin_displaced" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -95,7 +95,7 @@
     <t>xudur</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>always_lived</t>
   </si>
   <si>
     <t>garbahaarey</t>
@@ -104,7 +104,7 @@
     <t>wanla_weyn</t>
   </si>
   <si>
-    <t>no</t>
+    <t>displaced</t>
   </si>
 </sst>
 </file>
@@ -516,16 +516,16 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>0.4338939971909361</v>
+        <v>0.4829061080810805</v>
       </c>
       <c r="E4">
-        <v>0.3247130241852524</v>
+        <v>0.3086381269252791</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2413929786238114</v>
+        <v>0.2084557649936404</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -562,13 +562,13 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>0.6285986918382073</v>
+        <v>0.6416239440843047</v>
       </c>
       <c r="E6">
-        <v>0.2242889417810389</v>
+        <v>0.2285140723300934</v>
       </c>
       <c r="F6">
-        <v>0.1471123663807539</v>
+        <v>0.1298619835856019</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>0.1265751895067123</v>
+        <v>0.2602383032225408</v>
       </c>
       <c r="E7">
-        <v>0.8734248104932878</v>
+        <v>0.7397616967774592</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>0.6490895137660611</v>
+        <v>0.6804654206324127</v>
       </c>
       <c r="E8">
-        <v>0.1674484887650271</v>
+        <v>0.1917272943602201</v>
       </c>
       <c r="F8">
-        <v>0.1552479197006966</v>
+        <v>0.1069838568764511</v>
       </c>
       <c r="G8">
-        <v>0.02821407776821507</v>
+        <v>0.02082342813091612</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -631,10 +631,10 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>0.7834868467257433</v>
+        <v>0.7729934045268795</v>
       </c>
       <c r="E9">
-        <v>0.2165131532742566</v>
+        <v>0.2270065954731205</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>0.2655310204532074</v>
+        <v>0.3323660956072528</v>
       </c>
       <c r="E11">
-        <v>0.5574482992446544</v>
+        <v>0.4460565073212454</v>
       </c>
       <c r="F11">
-        <v>0.08851034015106912</v>
+        <v>0.1107886985357509</v>
       </c>
       <c r="G11">
-        <v>0.08851034015106912</v>
+        <v>0.1107886985357509</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -700,13 +700,13 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>0.3745891928150673</v>
+        <v>0.487363569267753</v>
       </c>
       <c r="E12">
-        <v>0.4499159078987039</v>
+        <v>0.3506459434126348</v>
       </c>
       <c r="F12">
-        <v>0.1754948992862288</v>
+        <v>0.1619904873196121</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>0.3754744507547649</v>
+        <v>0.3073515381473032</v>
       </c>
       <c r="E13">
-        <v>0.5788962592073336</v>
+        <v>0.6489498912832892</v>
       </c>
       <c r="F13">
-        <v>0.04562929003790134</v>
+        <v>0.04369857056940763</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>0.3808582150219126</v>
+        <v>0.3563962960946137</v>
       </c>
       <c r="E14">
-        <v>0.5961445569436203</v>
+        <v>0.6177580151522395</v>
       </c>
       <c r="F14">
-        <v>0.02299722803446706</v>
+        <v>0.02584568875314694</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>0.705365732163697</v>
+        <v>0.6243076641910332</v>
       </c>
       <c r="E16">
-        <v>0.202676476096882</v>
+        <v>0.3112937492681226</v>
       </c>
       <c r="F16">
-        <v>0.09195779173942109</v>
+        <v>0.06439858654084409</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.2212815619630786</v>
+        <v>0.3382054949988934</v>
       </c>
       <c r="E18">
-        <v>0.5999512081822799</v>
+        <v>0.4717568971489077</v>
       </c>
       <c r="F18">
-        <v>0.1787672298546415</v>
+        <v>0.1900376078521991</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>26</v>
       </c>
       <c r="D20">
-        <v>0.3769056341206712</v>
+        <v>0.2954216765382026</v>
       </c>
       <c r="E20">
-        <v>0.6230943658793289</v>
+        <v>0.7045783234617974</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>0.4482327801088911</v>
+        <v>0.4759933064091681</v>
       </c>
       <c r="E21">
-        <v>0.4765385503893331</v>
+        <v>0.4524794689665161</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0752286695017759</v>
+        <v>0.07152722462431582</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -930,13 +930,13 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>0.1126302934192392</v>
+        <v>0.1245999338763479</v>
       </c>
       <c r="E22">
-        <v>0.4177226791668774</v>
+        <v>0.4108892353518597</v>
       </c>
       <c r="F22">
-        <v>0.4696470274138833</v>
+        <v>0.4645108307717923</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>0.5058082080025065</v>
+        <v>0.4534622879159473</v>
       </c>
       <c r="E23">
-        <v>0.4941917919974935</v>
+        <v>0.5465377120840528</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -976,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>0.4719809868913086</v>
+        <v>0.504052662292603</v>
       </c>
       <c r="E24">
-        <v>0.5280190131086914</v>
+        <v>0.495947337707397</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <v>0.3801708084511102</v>
+        <v>0.3695248772070674</v>
       </c>
       <c r="E25">
-        <v>0.6198291915488899</v>
+        <v>0.6304751227929326</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1075,13 +1075,13 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>0.3067614335456559</v>
+        <v>0.3299638470180129</v>
       </c>
       <c r="E4">
-        <v>0.6425781846382448</v>
+        <v>0.6120206706290734</v>
       </c>
       <c r="F4">
-        <v>0.05066038181609951</v>
+        <v>0.05801548235291366</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>0.2469617068727337</v>
+        <v>0.2229487521213348</v>
       </c>
       <c r="E5">
-        <v>0.6921790761993344</v>
+        <v>0.6949161349003545</v>
       </c>
       <c r="F5">
-        <v>0.04476180007507163</v>
+        <v>0.06217968706701102</v>
       </c>
       <c r="G5">
-        <v>0.01609741685286032</v>
+        <v>0.01995542591129953</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1121,13 +1121,13 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>0.0655292056269826</v>
+        <v>0.06560313118393259</v>
       </c>
       <c r="E6">
-        <v>0.756152755473568</v>
+        <v>0.7259375433774434</v>
       </c>
       <c r="F6">
-        <v>0.1783180388994494</v>
+        <v>0.2084593254386241</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>0.3099887863792132</v>
+        <v>0.3067876531704871</v>
       </c>
       <c r="E7">
-        <v>0.4508955064899244</v>
+        <v>0.465825636206937</v>
       </c>
       <c r="F7">
-        <v>0.2159650786608825</v>
+        <v>0.2082241078966419</v>
       </c>
       <c r="G7">
-        <v>0.02315062846997985</v>
+        <v>0.01916260272593405</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1190,13 +1190,13 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>0.1088778165376401</v>
+        <v>0.08499592622833563</v>
       </c>
       <c r="E9">
-        <v>0.7204283540350364</v>
+        <v>0.7448239379229042</v>
       </c>
       <c r="F9">
-        <v>0.1706938294273234</v>
+        <v>0.1701801358487602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>0.2316573847519285</v>
+        <v>0.2589672082037577</v>
       </c>
       <c r="E10">
-        <v>0.4024442355923721</v>
+        <v>0.3659133674944501</v>
       </c>
       <c r="F10">
-        <v>0.3658983796556993</v>
+        <v>0.3751194243017922</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>0.3579570369559333</v>
+        <v>0.3610955725964223</v>
       </c>
       <c r="E11">
-        <v>0.6420429630440667</v>
+        <v>0.6389044274035777</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>0.214323271429881</v>
+        <v>0.2022731107742338</v>
       </c>
       <c r="E12">
-        <v>0.6131007437333956</v>
+        <v>0.6337914234624509</v>
       </c>
       <c r="F12">
-        <v>0.1725759848367233</v>
+        <v>0.1639354657633152</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>0.9251346990101889</v>
+        <v>0.913650255410942</v>
       </c>
       <c r="E15">
-        <v>0.07486530098981117</v>
+        <v>0.08634974458905806</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>0.4028372399736515</v>
+        <v>0.2231053717126787</v>
       </c>
       <c r="E18">
-        <v>0.5971627600263485</v>
+        <v>0.7768946282873211</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>0.2515969326600623</v>
+        <v>0.2746318732696291</v>
       </c>
       <c r="E19">
-        <v>0.7484030673399377</v>
+        <v>0.7253681267303709</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1469,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6092183998419572</v>
+        <v>0.6184791088452267</v>
       </c>
       <c r="F21">
-        <v>0.1953908000790213</v>
+        <v>0.1907604455773866</v>
       </c>
       <c r="G21">
-        <v>0.1953908000790213</v>
+        <v>0.1907604455773866</v>
       </c>
     </row>
   </sheetData>
